--- a/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
@@ -7742,12 +7742,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7757,12 +7757,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7870,12 +7870,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en C.Valenciana</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en C.Valenciana (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
@@ -736,102 +736,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21191</t>
+          <t>20393</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17675</t>
+          <t>16857</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25277</t>
+          <t>24594</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19909</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16527</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24087</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>40302</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>46101</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>12,17%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17540</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>14698</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>21532</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>12,25%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>10,26%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>15,04%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>38731</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>33751</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>43993</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>13,92%</t>
         </is>
       </c>
     </row>
@@ -849,102 +849,102 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>124001</t>
+          <t>141823</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>119915</t>
+          <t>137622</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>127517</t>
+          <t>145359</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>89,61%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>148950</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>144772</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>152332</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>88,21%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>85,74%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>290773</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>284974</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>295901</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>87,83%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>772</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>125664</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>121672</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>128506</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>87,75%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>84,96%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>89,74%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>249665</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>244403</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>254645</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>86,57%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>89,38%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13964</t>
+          <t>13808</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11301</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17370</t>
+          <t>17087</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15537</t>
+          <t>16471</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12791</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18937</t>
+          <t>19907</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>29501</t>
+          <t>30279</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>25396</t>
+          <t>26054</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>34862</t>
+          <t>35181</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,53%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67108</t>
+          <t>76460</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63702</t>
+          <t>73181</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69771</t>
+          <t>79078</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,78%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93416</t>
+          <t>106067</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90016</t>
+          <t>102631</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>96162</t>
+          <t>109262</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>160524</t>
+          <t>182527</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>155163</t>
+          <t>177625</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>164629</t>
+          <t>186752</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>83,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>87,76%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36645</t>
+          <t>32503</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32174</t>
+          <t>28434</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41882</t>
+          <t>36952</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15626</t>
+          <t>15409</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12779</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18945</t>
+          <t>18354</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>52271</t>
+          <t>47912</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>46853</t>
+          <t>42857</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>58177</t>
+          <t>53398</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>24,8%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>126125</t>
+          <t>120856</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120888</t>
+          <t>116407</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>130596</t>
+          <t>124925</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47566</t>
+          <t>46526</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44247</t>
+          <t>43581</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50413</t>
+          <t>49390</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>75,12%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>173691</t>
+          <t>167382</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>167785</t>
+          <t>161896</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>179109</t>
+          <t>172437</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>79,27%</t>
+          <t>80,09%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36364</t>
+          <t>34283</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31881</t>
+          <t>30151</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41501</t>
+          <t>39242</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36788</t>
+          <t>35988</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32296</t>
+          <t>31540</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41640</t>
+          <t>40712</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>73152</t>
+          <t>70271</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>67218</t>
+          <t>64650</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>80288</t>
+          <t>77484</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133666</t>
+          <t>136209</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>128529</t>
+          <t>131250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>140341</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>79,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>140935</t>
+          <t>147040</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>136083</t>
+          <t>142316</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>145427</t>
+          <t>151488</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>274601</t>
+          <t>283249</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>267465</t>
+          <t>276036</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>280535</t>
+          <t>288870</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>80,67%</t>
+          <t>81,71%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12333</t>
+          <t>11139</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9606</t>
+          <t>8878</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15435</t>
+          <t>13771</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35149</t>
+          <t>33462</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31047</t>
+          <t>29312</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>40103</t>
+          <t>37779</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>47482</t>
+          <t>44601</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42516</t>
+          <t>39782</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>53454</t>
+          <t>49694</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>24,97%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64007</t>
+          <t>62654</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>60905</t>
+          <t>60022</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66734</t>
+          <t>64915</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>97492</t>
+          <t>91790</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>92538</t>
+          <t>87473</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>101594</t>
+          <t>95940</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>161500</t>
+          <t>154444</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>155528</t>
+          <t>149351</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>166466</t>
+          <t>159263</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>80,01%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>640</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29528</t>
+          <t>27892</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>23814</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33633</t>
+          <t>32162</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>31854</t>
+          <t>29392</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>27574</t>
+          <t>25455</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>36317</t>
+          <t>33957</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>42678</t>
+          <t>53673</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>40799</t>
+          <t>52363</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>43746</t>
+          <t>54533</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>88375</t>
+          <t>94507</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>84270</t>
+          <t>90237</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>92380</t>
+          <t>98585</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>131053</t>
+          <t>148179</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>126590</t>
+          <t>143614</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>135333</t>
+          <t>152116</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>83,07%</t>
+          <t>85,66%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>122823</t>
+          <t>113626</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>114738</t>
+          <t>105556</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>133027</t>
+          <t>121591</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>150169</t>
+          <t>149131</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>141024</t>
+          <t>140341</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>159905</t>
+          <t>159080</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>272992</t>
+          <t>262757</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>260405</t>
+          <t>249788</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>286429</t>
+          <t>275492</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>557585</t>
+          <t>591675</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>547381</t>
+          <t>583710</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>565670</t>
+          <t>599745</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>593447</t>
+          <t>634880</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>583711</t>
+          <t>624931</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>602592</t>
+          <t>643670</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>79,81%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1151033</t>
+          <t>1226555</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1137596</t>
+          <t>1213820</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1163620</t>
+          <t>1239524</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>83,23%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34400</t>
+          <t>33564</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56865</t>
+          <t>56294</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35631</t>
+          <t>34600</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>55787</t>
+          <t>55195</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>73416</t>
+          <t>75834</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>105429</t>
+          <t>104996</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,78%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>309818</t>
+          <t>310389</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>332283</t>
+          <t>333119</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>243114</t>
+          <t>243706</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>263270</t>
+          <t>264301</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>560155</t>
+          <t>560588</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>592168</t>
+          <t>589750</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>88,61%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31244</t>
+          <t>30599</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53133</t>
+          <t>52195</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26779</t>
+          <t>26772</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43654</t>
+          <t>43766</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>62124</t>
+          <t>62688</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>89190</t>
+          <t>91280</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>270914</t>
+          <t>271852</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>292803</t>
+          <t>293448</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>216427</t>
+          <t>216315</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>233302</t>
+          <t>233309</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>494938</t>
+          <t>492848</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>522004</t>
+          <t>521440</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>89,27%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11471</t>
+          <t>11948</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88790</t>
+          <t>87817</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20777</t>
+          <t>20735</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35024</t>
+          <t>34486</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22730</t>
+          <t>21718</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>123885</t>
+          <t>123906</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>385915</t>
+          <t>386888</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463234</t>
+          <t>462757</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,3%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62540</t>
+          <t>63078</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>76787</t>
+          <t>76829</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>448384</t>
+          <t>448363</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>549539</t>
+          <t>550551</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58222</t>
+          <t>57940</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85569</t>
+          <t>85685</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>78849</t>
+          <t>79064</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>481345</t>
+          <t>458658</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>75,54%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>147690</t>
+          <t>147774</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>681941</t>
+          <t>681590</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>58,09%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>450586</t>
+          <t>450470</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>477933</t>
+          <t>478215</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,04%</t>
+          <t>84,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>155859</t>
+          <t>178546</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>558355</t>
+          <t>558140</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>491418</t>
+          <t>491769</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1025669</t>
+          <t>1025585</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14966</t>
+          <t>15003</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31986</t>
+          <t>30760</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>56128</t>
+          <t>53956</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>123044</t>
+          <t>120156</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>82569</t>
+          <t>81365</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>144438</t>
+          <t>142871</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>22,49%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>179236</t>
+          <t>180462</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>196256</t>
+          <t>196219</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>300905</t>
+          <t>303793</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>367821</t>
+          <t>369993</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>87,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>490733</t>
+          <t>492300</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>552602</t>
+          <t>553806</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,26%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>87,19%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>467</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5167</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>82754</t>
+          <t>83590</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>113621</t>
+          <t>113107</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>84007</t>
+          <t>84437</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>117095</t>
+          <t>115513</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>17,57%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>161594</t>
+          <t>162063</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166286</t>
+          <t>166294</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>376888</t>
+          <t>377402</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>407755</t>
+          <t>406919</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,13%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>540175</t>
+          <t>541757</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>573263</t>
+          <t>572833</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,18%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,15%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>146895</t>
+          <t>136154</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>261358</t>
+          <t>260118</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>376150</t>
+          <t>382214</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1049548</t>
+          <t>981207</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>44,43%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>574441</t>
+          <t>586300</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1307080</t>
+          <t>1318664</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,75%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1818215</t>
+          <t>1819455</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1932678</t>
+          <t>1943419</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1158660</t>
+          <t>1227001</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1832058</t>
+          <t>1825994</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2980701</t>
+          <t>2969117</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3713340</t>
+          <t>3701481</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>86,33%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56667</t>
+          <t>57800</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74911</t>
+          <t>74917</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>72526</t>
+          <t>73553</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>91631</t>
+          <t>91720</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>136126</t>
+          <t>135002</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>162038</t>
+          <t>161516</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,82%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>130731</t>
+          <t>130725</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>148975</t>
+          <t>147842</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>118765</t>
+          <t>118676</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>137870</t>
+          <t>136843</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>65,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>254001</t>
+          <t>254523</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>279913</t>
+          <t>281037</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,05%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,28%</t>
+          <t>67,55%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33745</t>
+          <t>32679</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49190</t>
+          <t>47634</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>78627</t>
+          <t>78295</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95554</t>
+          <t>96057</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>115761</t>
+          <t>116535</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>139231</t>
+          <t>139185</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>47,34%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75758</t>
+          <t>77314</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91203</t>
+          <t>92269</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>73489</t>
+          <t>72986</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>90416</t>
+          <t>90748</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>154759</t>
+          <t>154805</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>178229</t>
+          <t>177455</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>60,36%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36508</t>
+          <t>35911</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51750</t>
+          <t>51492</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38008</t>
+          <t>37896</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>47976</t>
+          <t>47831</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>66,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>75861</t>
+          <t>78261</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>96785</t>
+          <t>96874</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>63,09%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44403</t>
+          <t>44661</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59645</t>
+          <t>60242</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>46,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>62,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9428</t>
+          <t>9573</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19396</t>
+          <t>19508</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>56772</t>
+          <t>56683</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>77696</t>
+          <t>75296</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>50,6%</t>
+          <t>49,03%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50608</t>
+          <t>50110</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71767</t>
+          <t>71320</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83567</t>
+          <t>82959</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>102497</t>
+          <t>103199</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>137276</t>
+          <t>139203</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>167505</t>
+          <t>168021</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>52,17%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91375</t>
+          <t>91822</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112534</t>
+          <t>113032</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>56411</t>
+          <t>55709</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>75341</t>
+          <t>75949</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>154546</t>
+          <t>154030</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>184775</t>
+          <t>182848</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>57,37%</t>
+          <t>56,78%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8735</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18934</t>
+          <t>18986</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48061</t>
+          <t>49500</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>64848</t>
+          <t>65424</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>60298</t>
+          <t>61242</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>80699</t>
+          <t>81217</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>54,82%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34775</t>
+          <t>34723</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44974</t>
+          <t>44602</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29593</t>
+          <t>29017</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46380</t>
+          <t>44941</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>67451</t>
+          <t>66933</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>87852</t>
+          <t>86908</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>58,66%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2807</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12496</t>
+          <t>12235</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21857</t>
+          <t>22446</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>33599</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>26448</t>
+          <t>27248</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>41968</t>
+          <t>42675</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>42,72%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24051</t>
+          <t>24312</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33740</t>
+          <t>33397</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>65,81%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30160</t>
+          <t>29751</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>41493</t>
+          <t>40904</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>57929</t>
+          <t>57222</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>73449</t>
+          <t>72649</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>57,99%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>72,72%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>210803</t>
+          <t>211845</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>249941</t>
+          <t>249415</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>371985</t>
+          <t>371991</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>410781</t>
+          <t>413432</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>49,36%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>594222</t>
+          <t>593579</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>647718</t>
+          <t>648470</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>430201</t>
+          <t>430727</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>469339</t>
+          <t>468297</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>342761</t>
+          <t>340110</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>381557</t>
+          <t>381551</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>50,63%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>785966</t>
+          <t>785214</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>839462</t>
+          <t>840105</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>58,6%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20393</t>
+          <t>47698</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16857</t>
+          <t>35951</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24594</t>
+          <t>60196</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19909</t>
+          <t>49461</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16527</t>
+          <t>39628</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24087</t>
+          <t>61470</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>131</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>40302</t>
+          <t>97159</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>35174</t>
+          <t>82803</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>46101</t>
+          <t>115608</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>15,99%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>141823</t>
+          <t>347689</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>137622</t>
+          <t>335191</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>145359</t>
+          <t>359436</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>148950</t>
+          <t>278165</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>144772</t>
+          <t>266156</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>152332</t>
+          <t>287998</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>84,9%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>290773</t>
+          <t>625854</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>284974</t>
+          <t>607405</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>295901</t>
+          <t>640210</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>88,55%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13808</t>
+          <t>43221</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11190</t>
+          <t>31764</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17087</t>
+          <t>54752</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16471</t>
+          <t>37779</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13276</t>
+          <t>29676</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19907</t>
+          <t>48005</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>113</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>30279</t>
+          <t>81000</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>26054</t>
+          <t>66113</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>35181</t>
+          <t>96827</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>15,34%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76460</t>
+          <t>301126</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73181</t>
+          <t>289595</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79078</t>
+          <t>312583</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,07%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>106067</t>
+          <t>249161</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>102631</t>
+          <t>238935</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>109262</t>
+          <t>257264</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>614</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>182527</t>
+          <t>550287</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>177625</t>
+          <t>534460</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>186752</t>
+          <t>565174</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>89,53%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32503</t>
+          <t>43255</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28434</t>
+          <t>33207</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36952</t>
+          <t>56106</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15409</t>
+          <t>30843</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12545</t>
+          <t>23299</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18354</t>
+          <t>39255</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>47912</t>
+          <t>74098</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>42857</t>
+          <t>60607</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>53398</t>
+          <t>88650</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>23,88%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>120856</t>
+          <t>216433</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>116407</t>
+          <t>203582</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124925</t>
+          <t>226481</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46526</t>
+          <t>80643</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43581</t>
+          <t>72231</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49390</t>
+          <t>88187</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>72,33%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>70,37%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>167382</t>
+          <t>297076</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>161896</t>
+          <t>282524</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>172437</t>
+          <t>310567</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>83,67%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34283</t>
+          <t>78582</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30151</t>
+          <t>64816</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39242</t>
+          <t>95534</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35988</t>
+          <t>65142</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31540</t>
+          <t>53361</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40712</t>
+          <t>77632</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>204</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>70271</t>
+          <t>143724</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>64650</t>
+          <t>125408</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>77484</t>
+          <t>165134</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>15,0%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>136209</t>
+          <t>531400</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131250</t>
+          <t>514448</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>140341</t>
+          <t>545166</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,98%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>565</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>147040</t>
+          <t>425607</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>142316</t>
+          <t>413117</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>151488</t>
+          <t>437388</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>283249</t>
+          <t>957007</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>276036</t>
+          <t>935597</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>288870</t>
+          <t>975323</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>88,61%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11139</t>
+          <t>25364</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8878</t>
+          <t>16969</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13771</t>
+          <t>34455</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33462</t>
+          <t>105528</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29312</t>
+          <t>92980</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>37779</t>
+          <t>121062</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>204</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>44601</t>
+          <t>130891</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39782</t>
+          <t>113944</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>49694</t>
+          <t>148352</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62654</t>
+          <t>227977</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>60022</t>
+          <t>218886</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64915</t>
+          <t>236372</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91790</t>
+          <t>302491</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>87473</t>
+          <t>286957</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>95940</t>
+          <t>315039</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>74,14%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>70,33%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>613</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>154444</t>
+          <t>530470</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>149351</t>
+          <t>513009</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>159263</t>
+          <t>547417</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>77,59%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>82,77%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,72 +2446,72 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>510</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>5249</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27892</t>
+          <t>105962</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23814</t>
+          <t>90961</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>32162</t>
+          <t>122853</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>29392</t>
+          <t>107713</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25455</t>
+          <t>92524</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>33957</t>
+          <t>125155</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>17,46%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>53673</t>
+          <t>167746</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52363</t>
+          <t>164248</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54533</t>
+          <t>168987</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>94507</t>
+          <t>441515</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>90237</t>
+          <t>424624</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>98585</t>
+          <t>456516</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>599</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>148179</t>
+          <t>609261</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>143614</t>
+          <t>591819</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>152116</t>
+          <t>624450</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>84,98%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>87,1%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>113626</t>
+          <t>239870</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>105556</t>
+          <t>213774</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>121591</t>
+          <t>270154</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>638</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>149131</t>
+          <t>394715</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>140341</t>
+          <t>365605</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>159080</t>
+          <t>426978</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>932</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>262757</t>
+          <t>634585</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>249788</t>
+          <t>597295</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>275492</t>
+          <t>676994</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>591675</t>
+          <t>1792372</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>583710</t>
+          <t>1762088</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>599745</t>
+          <t>1818468</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>634880</t>
+          <t>1777583</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>624931</t>
+          <t>1745320</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>643670</t>
+          <t>1806693</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1226555</t>
+          <t>3569955</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1213820</t>
+          <t>3527546</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1239524</t>
+          <t>3607245</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>85,79%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2032242</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2032242</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2032242</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2172298</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2172298</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2172298</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>4832</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4204540</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4204540</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4204540</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45045</t>
+          <t>66036</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33564</t>
+          <t>57800</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56294</t>
+          <t>74917</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>238</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43908</t>
+          <t>82193</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34600</t>
+          <t>73553</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>55195</t>
+          <t>91720</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>430</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>88953</t>
+          <t>148230</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>75834</t>
+          <t>135002</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>104996</t>
+          <t>161516</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>38,82%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>321638</t>
+          <t>139606</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>310389</t>
+          <t>130725</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>333119</t>
+          <t>147842</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>67,89%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>63,57%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>376</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>254993</t>
+          <t>128203</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>243706</t>
+          <t>118676</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>264301</t>
+          <t>136843</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>65,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>785</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>576631</t>
+          <t>267809</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>560588</t>
+          <t>254523</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>589750</t>
+          <t>281037</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>67,55%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41342</t>
+          <t>40556</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30599</t>
+          <t>32679</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52195</t>
+          <t>47634</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>231</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34242</t>
+          <t>86971</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26772</t>
+          <t>78295</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43766</t>
+          <t>96057</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>334</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>75585</t>
+          <t>127526</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>62688</t>
+          <t>116535</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>91280</t>
+          <t>139185</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>47,34%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>282705</t>
+          <t>84392</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>271852</t>
+          <t>77314</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>293448</t>
+          <t>92269</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>225839</t>
+          <t>82072</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>216315</t>
+          <t>72986</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>233309</t>
+          <t>90748</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>396</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>508543</t>
+          <t>166464</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>492848</t>
+          <t>154805</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>521440</t>
+          <t>177455</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>60,36%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39669</t>
+          <t>43985</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11948</t>
+          <t>35911</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87817</t>
+          <t>51492</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27396</t>
+          <t>43477</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20735</t>
+          <t>37896</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34486</t>
+          <t>47831</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>75,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>66,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>202</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>67066</t>
+          <t>87463</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21718</t>
+          <t>78261</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>123906</t>
+          <t>96874</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>63,09%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>435036</t>
+          <t>52168</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>386888</t>
+          <t>44661</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>462757</t>
+          <t>60242</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>46,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>62,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70168</t>
+          <t>13927</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63078</t>
+          <t>9573</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>76829</t>
+          <t>19508</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>78,75%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>505203</t>
+          <t>66094</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>448363</t>
+          <t>56683</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>550551</t>
+          <t>75296</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>49,03%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70494</t>
+          <t>60472</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57940</t>
+          <t>50110</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85685</t>
+          <t>71320</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>262639</t>
+          <t>93416</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>79064</t>
+          <t>82959</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>458658</t>
+          <t>103199</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>58,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>71,98%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>329</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>333134</t>
+          <t>153889</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>147774</t>
+          <t>139203</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>681590</t>
+          <t>168021</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>52,17%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>465661</t>
+          <t>102670</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>450470</t>
+          <t>91822</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>478215</t>
+          <t>113032</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>62,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,02%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>374565</t>
+          <t>65492</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>178546</t>
+          <t>55709</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>558140</t>
+          <t>75949</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>339</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>840225</t>
+          <t>168162</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>491769</t>
+          <t>154030</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1025585</t>
+          <t>182848</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>56,78%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21894</t>
+          <t>13099</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15003</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30760</t>
+          <t>18986</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>97313</t>
+          <t>57459</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53956</t>
+          <t>49500</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>120156</t>
+          <t>65424</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>144</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>119207</t>
+          <t>70557</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>81365</t>
+          <t>61242</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>142871</t>
+          <t>81217</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>47,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>54,82%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>189328</t>
+          <t>40610</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>180462</t>
+          <t>34723</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>196219</t>
+          <t>44602</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,44%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>326636</t>
+          <t>36982</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>303793</t>
+          <t>29017</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>369993</t>
+          <t>44941</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>143</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>515964</t>
+          <t>77593</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>492300</t>
+          <t>66933</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>553806</t>
+          <t>86908</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>81,23%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,51%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>58,66%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>6133</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>12235</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>97367</t>
+          <t>27976</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>83590</t>
+          <t>22446</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>113107</t>
+          <t>33599</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>98993</t>
+          <t>34109</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>84437</t>
+          <t>27248</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>115513</t>
+          <t>42675</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>42,72%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>165135</t>
+          <t>30414</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>162063</t>
+          <t>24312</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166294</t>
+          <t>33397</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>393142</t>
+          <t>35374</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>377402</t>
+          <t>29751</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>406919</t>
+          <t>40904</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>558277</t>
+          <t>65788</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>541757</t>
+          <t>57222</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>572833</t>
+          <t>72649</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>65,86%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,43%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>72,72%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>220071</t>
+          <t>230282</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>136154</t>
+          <t>211845</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>260118</t>
+          <t>249415</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>955</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>562866</t>
+          <t>391492</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>382214</t>
+          <t>371991</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>981207</t>
+          <t>413432</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>782937</t>
+          <t>621774</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>586300</t>
+          <t>593579</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1318664</t>
+          <t>648470</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1859502</t>
+          <t>449860</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1819455</t>
+          <t>430727</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1943419</t>
+          <t>468297</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>901</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1645342</t>
+          <t>362050</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1227001</t>
+          <t>340110</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1825994</t>
+          <t>381551</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,69%</t>
+          <t>50,63%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3504844</t>
+          <t>811910</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2969117</t>
+          <t>785214</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3701481</t>
+          <t>840105</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>58,6%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079573</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079573</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079573</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2208208</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2208208</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2208208</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287781</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287781</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287781</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66036</t>
+          <t>20393</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>57800</t>
+          <t>16857</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74917</t>
+          <t>24594</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>82193</t>
+          <t>19909</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>73553</t>
+          <t>16527</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>91720</t>
+          <t>24087</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>228</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>148230</t>
+          <t>40302</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>135002</t>
+          <t>35174</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>161516</t>
+          <t>46101</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>13,92%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>732</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>139606</t>
+          <t>141823</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>130725</t>
+          <t>137622</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>147842</t>
+          <t>145359</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,89%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>772</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>128203</t>
+          <t>148950</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>118676</t>
+          <t>144772</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>136843</t>
+          <t>152332</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>65,04%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>267809</t>
+          <t>290773</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>254523</t>
+          <t>284974</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>281037</t>
+          <t>295901</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>64,37%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>89,38%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40556</t>
+          <t>13808</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32679</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47634</t>
+          <t>17087</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86971</t>
+          <t>16471</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>78295</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96057</t>
+          <t>19907</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>170</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127526</t>
+          <t>30279</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>116535</t>
+          <t>26054</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>139185</t>
+          <t>35181</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>16,53%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84392</t>
+          <t>76460</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77314</t>
+          <t>73181</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92269</t>
+          <t>79078</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>579</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>82072</t>
+          <t>106067</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72986</t>
+          <t>102631</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>90748</t>
+          <t>109262</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>995</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>166464</t>
+          <t>182527</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>154805</t>
+          <t>177625</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>177455</t>
+          <t>186752</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>83,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>87,76%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43985</t>
+          <t>32503</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35911</t>
+          <t>28434</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51492</t>
+          <t>36952</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>43477</t>
+          <t>15409</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37896</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>47831</t>
+          <t>18354</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,74%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>66,02%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>289</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>87463</t>
+          <t>47912</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>78261</t>
+          <t>42857</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>96874</t>
+          <t>53398</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>56,96%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>63,09%</t>
+          <t>24,8%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>719</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52168</t>
+          <t>120856</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44661</t>
+          <t>116407</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60242</t>
+          <t>124925</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>277</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13927</t>
+          <t>46526</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9573</t>
+          <t>43581</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19508</t>
+          <t>49390</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>75,12%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>996</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>66094</t>
+          <t>167382</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>56683</t>
+          <t>161896</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>75296</t>
+          <t>172437</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>80,09%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60472</t>
+          <t>34283</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50110</t>
+          <t>30151</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71320</t>
+          <t>39242</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93416</t>
+          <t>35988</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>82959</t>
+          <t>31540</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>103199</t>
+          <t>40712</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>422</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>153889</t>
+          <t>70271</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>139203</t>
+          <t>64650</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>168021</t>
+          <t>77484</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>102670</t>
+          <t>136209</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91822</t>
+          <t>131250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>113032</t>
+          <t>140341</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>79,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>830</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65492</t>
+          <t>147040</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>55709</t>
+          <t>142316</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>75949</t>
+          <t>151488</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>168162</t>
+          <t>283249</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>154030</t>
+          <t>276036</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>182848</t>
+          <t>288870</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>81,71%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13099</t>
+          <t>11139</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9107</t>
+          <t>8878</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18986</t>
+          <t>13771</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>57459</t>
+          <t>33462</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>49500</t>
+          <t>29312</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>65424</t>
+          <t>37779</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>60,84%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>270</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>70557</t>
+          <t>44601</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>61242</t>
+          <t>39782</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>81217</t>
+          <t>49694</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>24,97%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40610</t>
+          <t>62654</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34723</t>
+          <t>60022</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44602</t>
+          <t>64915</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>544</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>36982</t>
+          <t>91790</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29017</t>
+          <t>87473</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>44941</t>
+          <t>95940</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>73,28%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>76,6%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>922</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>77593</t>
+          <t>154444</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>66933</t>
+          <t>149351</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>86908</t>
+          <t>159263</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>58,66%</t>
+          <t>80,01%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>744</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6133</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>640</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12235</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27976</t>
+          <t>27892</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22446</t>
+          <t>23814</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33599</t>
+          <t>32162</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>178</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>34109</t>
+          <t>29392</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>27248</t>
+          <t>25455</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>42675</t>
+          <t>33957</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>30414</t>
+          <t>53673</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24312</t>
+          <t>52363</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33397</t>
+          <t>54533</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>523</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>35374</t>
+          <t>94507</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>29751</t>
+          <t>90237</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40904</t>
+          <t>98585</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>779</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>65788</t>
+          <t>148179</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>57222</t>
+          <t>143614</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>72649</t>
+          <t>152116</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>85,66%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>957</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>686</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>230282</t>
+          <t>113626</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>211845</t>
+          <t>105556</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>249415</t>
+          <t>121591</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>871</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>391492</t>
+          <t>149131</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>371991</t>
+          <t>140341</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>413432</t>
+          <t>159080</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>621774</t>
+          <t>262757</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>593579</t>
+          <t>249788</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>648470</t>
+          <t>275492</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>449860</t>
+          <t>591675</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>430727</t>
+          <t>583710</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>468297</t>
+          <t>599745</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>63,33%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>362050</t>
+          <t>634880</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>340110</t>
+          <t>624931</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>381551</t>
+          <t>643670</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>811910</t>
+          <t>1226555</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>785214</t>
+          <t>1213820</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>840105</t>
+          <t>1239524</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>83,23%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
